--- a/input/Final Design- 30 runs.xlsx
+++ b/input/Final Design- 30 runs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melissa.n.jablonski\Documents\Liza Drone Swarm Research\20210608_Network\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Code\dronelab\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2ACF14-C39B-4D48-9062-FB6C43704B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900"/>
+    <workbookView xWindow="4155" yWindow="1995" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arahama 1 (1a)" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Relay</t>
   </si>
@@ -32,11 +33,14 @@
   <si>
     <t>Antisocial</t>
   </si>
+  <si>
+    <t>WiFi Range</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -373,451 +377,545 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A2" sqref="A2:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>0.46750000000000003</v>
+      </c>
+      <c r="B2">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>15</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>12</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>0.46750000000000003</v>
+      </c>
+      <c r="B3">
         <v>26</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>4</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>0.46750000000000003</v>
+      </c>
+      <c r="B4">
         <v>10</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>14</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>6</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>0.46750000000000003</v>
+      </c>
+      <c r="B5">
         <v>19</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>5</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>6</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>0.46750000000000003</v>
+      </c>
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>27</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>2</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>0.46750000000000003</v>
+      </c>
+      <c r="B7">
         <v>1</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>10</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>19</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>0.46750000000000003</v>
+      </c>
+      <c r="B8">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>2</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>23</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>0.46750000000000003</v>
+      </c>
+      <c r="B9">
         <v>14</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>6</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>10</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>0.46750000000000003</v>
+      </c>
+      <c r="B10">
         <v>5</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>9</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>16</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>0.46750000000000003</v>
+      </c>
+      <c r="B11">
         <v>3</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>6</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>21</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>0.46750000000000003</v>
+      </c>
+      <c r="B12">
         <v>16</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>9</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>5</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>0.46750000000000003</v>
+      </c>
+      <c r="B13">
         <v>6</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>17</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>7</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>0.46750000000000003</v>
+      </c>
+      <c r="B14">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>17</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>0.46750000000000003</v>
+      </c>
+      <c r="B15">
         <v>0</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>20</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>10</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>0.46750000000000003</v>
+      </c>
+      <c r="B16">
         <v>17</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>0</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>13</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>0.46750000000000003</v>
+      </c>
+      <c r="B17">
         <v>2</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>22</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>6</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>0.46750000000000003</v>
+      </c>
+      <c r="B18">
         <v>18</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>11</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>1</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>0.46750000000000003</v>
+      </c>
+      <c r="B19">
         <v>2</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>13</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>15</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>0.46750000000000003</v>
+      </c>
+      <c r="B20">
         <v>11</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>10</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>9</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>0.46750000000000003</v>
+      </c>
+      <c r="B21">
         <v>2</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>0</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>28</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>0.46750000000000003</v>
+      </c>
+      <c r="B22">
         <v>12</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>4</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>14</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>0.46750000000000003</v>
+      </c>
+      <c r="B23">
         <v>0</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>4</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>26</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
+        <v>0.46750000000000003</v>
+      </c>
+      <c r="B24">
         <v>10</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>1</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>19</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
+        <v>0.46750000000000003</v>
+      </c>
+      <c r="B25">
         <v>29</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>1</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>0</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
+        <v>0.46750000000000003</v>
+      </c>
+      <c r="B26">
         <v>5</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>24</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>1</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
+        <v>0.46750000000000003</v>
+      </c>
+      <c r="B27">
         <v>8</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>19</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>3</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>0.46750000000000003</v>
+      </c>
+      <c r="B28">
         <v>23</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>6</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>1</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
+        <v>0.46750000000000003</v>
+      </c>
+      <c r="B29">
         <v>8</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>7</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>15</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
+        <v>0.46750000000000003</v>
+      </c>
+      <c r="B30">
         <v>7</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>12</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>11</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
+        <v>0.46750000000000003</v>
+      </c>
+      <c r="B31">
         <v>21</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>2</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>7</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>30</v>
       </c>
     </row>
@@ -827,6 +925,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E4DDA97709D05344805E34443243448B" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="86d733d9caa5c0a9dbde5490acac1158">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d413257cd9829394d17656a545d5fa4e">
     <xsd:element name="properties">
@@ -940,15 +1047,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -956,13 +1054,34 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0F65D52-FF57-4527-A33A-29CBD6B136FE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41F3EB80-D712-4960-B17E-A6106CE14B31}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41F3EB80-D712-4960-B17E-A6106CE14B31}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0F65D52-FF57-4527-A33A-29CBD6B136FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BF93D52-D5DF-492D-A78D-BB290CAA47E9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BF93D52-D5DF-492D-A78D-BB290CAA47E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>